--- a/lib/jobs/dme_sandia_510.xlsx
+++ b/lib/jobs/dme_sandia_510.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3F9858-DAA5-CB48-91EB-D5DE77F9A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4F3CE3-969B-0243-85BD-D5F9C555251E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21040" yWindow="460" windowWidth="14620" windowHeight="7580" activeTab="1" xr2:uid="{E67FD926-F6F9-4D40-89D7-F9619D8CC074}"/>
+    <workbookView xWindow="44520" yWindow="5160" windowWidth="18380" windowHeight="12080" activeTab="1" xr2:uid="{E67FD926-F6F9-4D40-89D7-F9619D8CC074}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
     <sheet name="mech" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>dme_couch_v2.cti</t>
+  </si>
+  <si>
+    <t>dme_couch.csv</t>
+  </si>
+  <si>
+    <t>exp_filenames</t>
+  </si>
+  <si>
+    <t>calc_types</t>
+  </si>
+  <si>
+    <t>x_srcs</t>
+  </si>
+  <si>
+    <t>cond_srcs</t>
+  </si>
+  <si>
+    <t>mech_filenames</t>
+  </si>
+  <si>
+    <t>spc_filenames</t>
+  </si>
+  <si>
+    <t>mech_names</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
   <si>
     <t>couch_2022_dme_450k.xlsx</t>
   </si>
@@ -56,67 +92,34 @@
     <t>couch_2022_dme_575k.xlsx</t>
   </si>
   <si>
-    <t>outcome</t>
-  </si>
-  <si>
-    <t>plot</t>
-  </si>
-  <si>
-    <t>dme_couch_v2.cti</t>
-  </si>
-  <si>
-    <t>dme_couch.csv</t>
-  </si>
-  <si>
-    <t>exp_filenames</t>
-  </si>
-  <si>
-    <t>calc_types</t>
-  </si>
-  <si>
-    <t>x_srcs</t>
-  </si>
-  <si>
-    <t>cond_srcs</t>
-  </si>
-  <si>
-    <t>mech_filenames</t>
-  </si>
-  <si>
-    <t>spc_filenames</t>
-  </si>
-  <si>
-    <t>mech_names</t>
+    <t>couch_2022_dme_lowO2.xlsx</t>
+  </si>
+  <si>
+    <t>couch_2022_dme_midO2.xlsx</t>
+  </si>
+  <si>
+    <t>couch_2022_dme_highO2.xlsx</t>
   </si>
   <si>
     <t>moshammer_2016_dme_mod.xlsx</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>x3</t>
   </si>
   <si>
-    <t>/3</t>
-  </si>
-  <si>
     <t>x10</t>
   </si>
   <si>
-    <t>/10</t>
-  </si>
-  <si>
-    <t>dme_couch_v33.cti</t>
-  </si>
-  <si>
-    <t>dme_couch_v34.cti</t>
-  </si>
-  <si>
-    <t>dme_couch_v35.cti</t>
-  </si>
-  <si>
-    <t>dme_couch_v36.cti</t>
+    <t>dme_couch_v45.cti</t>
+  </si>
+  <si>
+    <t>dme_couch_v46.cti</t>
+  </si>
+  <si>
+    <t>dme_couch_v47.cti</t>
+  </si>
+  <si>
+    <t>x30</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821614B2-A993-F74B-8EE7-FDCAF6404E21}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,114 +484,156 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -598,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E131E0-4778-7544-AC59-77E4A2728CC9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,68 +657,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
